--- a/new_questions/Copy_of_data2_upv_changes.xlsx
+++ b/new_questions/Copy_of_data2_upv_changes.xlsx
@@ -280,7 +280,7 @@
     <t>4. Má úřad infocentrum?</t>
   </si>
   <si>
-    <t>5. jak kontaktovat Úřad průmyslového vlastnictví | UPV?</t>
+    <t>5. jak kontaktovat (Úřad průmyslového vlastnictví | UPV)?</t>
   </si>
   <si>
     <t>6. Kde (najdu | jsou) informace o provozu podatelny Úřadu?</t>
